--- a/Uploads/1_new_696.xlsx
+++ b/Uploads/1_new_696.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,43 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>الطاووس خل أبيض طبيعي- 500 مل</t>
-  </si>
-  <si>
-    <t>سردين دولفين بارد - 125 جم</t>
-  </si>
-  <si>
-    <t>جوتيلا كريمة الشوكولاتة بالبندق - 220 جم</t>
-  </si>
-  <si>
-    <t>الطاووس خل أبيض طبيعي - delisted 900 مل</t>
-  </si>
-  <si>
-    <t>اوكسي سائل أطباق ليمون اصفر- 100 جم</t>
-  </si>
-  <si>
-    <t>عرض فيتا باندا ( 2 علبة 250 جم + خصم 50 % من المربى) - 250 جم</t>
-  </si>
-  <si>
-    <t>عرض فيتا ديري ( 2 علبة 250 جم + علبة مثلثات ديري فردى) - 250 جم</t>
-  </si>
-  <si>
-    <t>سلايت زيت عباد الشمس مكرر- 675 مل</t>
-  </si>
-  <si>
-    <t>جوتيلا كريمة الشوكولاتة بالبندق - 425 جم</t>
-  </si>
-  <si>
-    <t>جوتيلا كريمة الشوكولاتة البيضاء - 425 جم</t>
-  </si>
-  <si>
-    <t>الطاووس خل أبيض طبيعي - 900 مل</t>
+    <t>ريد بل - 250 مل</t>
   </si>
   <si>
     <t>YES</t>
-  </si>
-  <si>
-    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -431,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G18"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -462,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>880</v>
+        <v>5151</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -471,282 +438,10 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>184</v>
+        <v>1085</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>1409</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>1728</v>
-      </c>
-      <c r="E3" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1409</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4">
-        <v>11</v>
-      </c>
-      <c r="D4">
-        <v>36</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>1409</v>
-      </c>
-      <c r="B5" t="s">
-        <v>8</v>
-      </c>
-      <c r="C5">
-        <v>15</v>
-      </c>
-      <c r="D5">
-        <v>520</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>1409</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-      <c r="C6">
-        <v>16</v>
-      </c>
-      <c r="D6">
-        <v>1384</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>12911</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>408</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>12911</v>
-      </c>
-      <c r="B8" t="s">
-        <v>9</v>
-      </c>
-      <c r="C8">
-        <v>3</v>
-      </c>
-      <c r="D8">
-        <v>36</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>879</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>160</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>11766</v>
-      </c>
-      <c r="B10" t="s">
-        <v>11</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>116</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>23781</v>
-      </c>
-      <c r="B11" t="s">
-        <v>12</v>
-      </c>
-      <c r="C11">
-        <v>2</v>
-      </c>
-      <c r="D11">
-        <v>328</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>23796</v>
-      </c>
-      <c r="B12" t="s">
-        <v>13</v>
-      </c>
-      <c r="C12">
-        <v>2</v>
-      </c>
-      <c r="D12">
-        <v>288</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7">
-      <c r="A13">
-        <v>1082</v>
-      </c>
-      <c r="B13" t="s">
-        <v>14</v>
-      </c>
-      <c r="C13">
-        <v>1</v>
-      </c>
-      <c r="D13">
-        <v>820</v>
-      </c>
-      <c r="E13" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7">
-      <c r="A14">
-        <v>12900</v>
-      </c>
-      <c r="B14" t="s">
-        <v>15</v>
-      </c>
-      <c r="C14">
-        <v>1</v>
-      </c>
-      <c r="D14">
-        <v>504</v>
-      </c>
-      <c r="E14" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7">
-      <c r="A15">
-        <v>12900</v>
-      </c>
-      <c r="B15" t="s">
-        <v>15</v>
-      </c>
-      <c r="C15">
-        <v>3</v>
-      </c>
-      <c r="D15">
-        <v>64</v>
-      </c>
-      <c r="E15" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7">
-      <c r="A16">
-        <v>12910</v>
-      </c>
-      <c r="B16" t="s">
-        <v>16</v>
-      </c>
-      <c r="C16">
-        <v>1</v>
-      </c>
-      <c r="D16">
-        <v>504</v>
-      </c>
-      <c r="E16" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="17" spans="1:5">
-      <c r="A17">
-        <v>12910</v>
-      </c>
-      <c r="B17" t="s">
-        <v>16</v>
-      </c>
-      <c r="C17">
-        <v>3</v>
-      </c>
-      <c r="D17">
-        <v>64</v>
-      </c>
-      <c r="E17" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="18" spans="1:5">
-      <c r="A18">
-        <v>5660</v>
-      </c>
-      <c r="B18" t="s">
-        <v>17</v>
-      </c>
-      <c r="C18">
-        <v>2</v>
-      </c>
-      <c r="D18">
-        <v>164</v>
-      </c>
-      <c r="E18" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_696.xlsx
+++ b/Uploads/1_new_696.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="71" uniqueCount="29">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,70 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ريد بل - 250 مل</t>
+    <t>ايبون فروتي- 800 جرام</t>
+  </si>
+  <si>
+    <t>تونة دولفين مفتتة حار 170 جم + 30 جم - 200 جم</t>
+  </si>
+  <si>
+    <t>سباجيتوس اكسترا شعرية حلوة بطعم التفاح - 3 جنية</t>
+  </si>
+  <si>
+    <t>سباجيتوس اكسترا شعرية حلوة بطعم مانجو - 3 جنية</t>
+  </si>
+  <si>
+    <t>شوتس شوكو - 12 قطعه</t>
+  </si>
+  <si>
+    <t>ماجيك فينجرز ويفر شوكولاتة بالبندق غير مغطي - 6 قطعه</t>
+  </si>
+  <si>
+    <t>اسباجيتوس شعرية حامض بطعم الفراولة 3 جنية</t>
+  </si>
+  <si>
+    <t>ماجيك فينجرز ويفر محشو بكريمة جوز الهند - 6 قطعه</t>
+  </si>
+  <si>
+    <t>سباجيتوس اكسترا شعرية حلوة بطعم الفراولة - 3 جنية</t>
+  </si>
+  <si>
+    <t>سباجيتوس اكسترا شعرية حلوة بطعم اناناس - 3 جنية</t>
+  </si>
+  <si>
+    <t>تويست مارشيلو بينك &amp; وايت - 10 جنية</t>
+  </si>
+  <si>
+    <t>سباجيتوس اكسترا شعرية حلوة بطعم الكولا - 3 جنية</t>
+  </si>
+  <si>
+    <t>ماجيك فنجرز - ويفر مغطى بالشوكولاتة محشو بكريمة الشوكولاتة - 6 قطعه</t>
+  </si>
+  <si>
+    <t>تويست ميني بلو مارشميلو  - 10 جنية</t>
+  </si>
+  <si>
+    <t>ماجيك فنجرز محشو بكريمة الفانيليا - 5 جنية</t>
+  </si>
+  <si>
+    <t>الطاووس خل أبيض طبيعي - 900 مل</t>
+  </si>
+  <si>
+    <t>الطاووس خل أبيض طبيعي- 500 مل</t>
+  </si>
+  <si>
+    <t>مياه اكوا دلتا - 600 مل</t>
+  </si>
+  <si>
+    <t>الطاووس خل أبيض طبيعي - delisted 900 مل</t>
+  </si>
+  <si>
+    <t>برسيل يدوى لافندر - 1.5 كجم</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -398,7 +458,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,19 +489,546 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5151</v>
+        <v>22330</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>96</v>
+      </c>
+      <c r="E2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>2859</v>
+      </c>
+      <c r="B3" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3">
+        <v>1692</v>
+      </c>
+      <c r="E3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>2859</v>
+      </c>
+      <c r="B4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>11</v>
+      </c>
+      <c r="D4">
+        <v>36</v>
+      </c>
+      <c r="E4" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2859</v>
+      </c>
+      <c r="B5" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5">
+        <v>15</v>
+      </c>
+      <c r="D5">
+        <v>424</v>
+      </c>
+      <c r="E5" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2859</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>16</v>
+      </c>
+      <c r="D6">
+        <v>844</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>11722</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>328</v>
+      </c>
+      <c r="E7" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>11722</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>56</v>
+      </c>
+      <c r="E8" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>11056</v>
+      </c>
+      <c r="B9" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>328</v>
+      </c>
+      <c r="E9" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>11056</v>
+      </c>
+      <c r="B10" t="s">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>3</v>
+      </c>
+      <c r="D10">
+        <v>56</v>
+      </c>
+      <c r="E10" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>21690</v>
+      </c>
+      <c r="B11" t="s">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>288</v>
+      </c>
+      <c r="E11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>21690</v>
+      </c>
+      <c r="B12" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+      <c r="D12">
+        <v>48</v>
+      </c>
+      <c r="E12" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>21691</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>24</v>
+      </c>
+      <c r="E13" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>12365</v>
+      </c>
+      <c r="B14" t="s">
+        <v>13</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>328</v>
+      </c>
+      <c r="E14" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>12365</v>
+      </c>
+      <c r="B15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C15">
+        <v>3</v>
+      </c>
+      <c r="D15">
+        <v>28</v>
+      </c>
+      <c r="E15" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>21689</v>
+      </c>
+      <c r="B16" t="s">
+        <v>14</v>
+      </c>
+      <c r="C16">
+        <v>3</v>
+      </c>
+      <c r="D16">
+        <v>24</v>
+      </c>
+      <c r="E16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>11054</v>
+      </c>
+      <c r="B17" t="s">
+        <v>15</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>328</v>
+      </c>
+      <c r="E17" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>11054</v>
+      </c>
+      <c r="B18" t="s">
+        <v>15</v>
+      </c>
+      <c r="C18">
+        <v>3</v>
+      </c>
+      <c r="D18">
+        <v>56</v>
+      </c>
+      <c r="E18" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>11057</v>
+      </c>
+      <c r="B19" t="s">
+        <v>16</v>
+      </c>
+      <c r="C19">
+        <v>1</v>
+      </c>
+      <c r="D19">
+        <v>332</v>
+      </c>
+      <c r="E19" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>11057</v>
+      </c>
+      <c r="B20" t="s">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>3</v>
+      </c>
+      <c r="D20">
+        <v>56</v>
+      </c>
+      <c r="E20" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>11717</v>
+      </c>
+      <c r="B21" t="s">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>548</v>
+      </c>
+      <c r="E21" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>11717</v>
+      </c>
+      <c r="B22" t="s">
+        <v>17</v>
+      </c>
+      <c r="C22">
+        <v>3</v>
+      </c>
+      <c r="D22">
+        <v>92</v>
+      </c>
+      <c r="E22" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>11055</v>
+      </c>
+      <c r="B23" t="s">
+        <v>18</v>
+      </c>
+      <c r="C23">
+        <v>1</v>
+      </c>
+      <c r="D23">
+        <v>328</v>
+      </c>
+      <c r="E23" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>11055</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>3</v>
+      </c>
+      <c r="D24">
+        <v>56</v>
+      </c>
+      <c r="E24" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>21694</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>3</v>
+      </c>
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>11718</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>548</v>
+      </c>
+      <c r="E26" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>11718</v>
+      </c>
+      <c r="B27" t="s">
+        <v>20</v>
+      </c>
+      <c r="C27">
+        <v>3</v>
+      </c>
+      <c r="D27">
+        <v>92</v>
+      </c>
+      <c r="E27" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>21693</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>3</v>
+      </c>
+      <c r="D28">
+        <v>24</v>
+      </c>
+      <c r="E28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>5660</v>
+      </c>
+      <c r="B29" t="s">
+        <v>22</v>
+      </c>
+      <c r="C29">
         <v>2</v>
       </c>
-      <c r="D2">
-        <v>1085</v>
-      </c>
-      <c r="E2" t="s">
-        <v>8</v>
+      <c r="D29">
+        <v>168</v>
+      </c>
+      <c r="E29" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>880</v>
+      </c>
+      <c r="B30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C30">
+        <v>2</v>
+      </c>
+      <c r="D30">
+        <v>188</v>
+      </c>
+      <c r="E30" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>525</v>
+      </c>
+      <c r="B31" t="s">
+        <v>24</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>879</v>
+      </c>
+      <c r="B32" t="s">
+        <v>25</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>164</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>8872</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>344</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_696.xlsx
+++ b/Uploads/1_new_696.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فيورى جولد - 400 مل</t>
+    <t>ريد بل - 250 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>7630</v>
+        <v>5151</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>226</v>
+        <v>1203</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_696.xlsx
+++ b/Uploads/1_new_696.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>ريد بل - 250 مل</t>
+    <t>مرقة دجاج كنور فاين فودز شريط - 8 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,16 +429,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>5151</v>
+        <v>159</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D2">
-        <v>1203</v>
+        <v>1</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_696.xlsx
+++ b/Uploads/1_new_696.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>مرقة دجاج كنور فاين فودز شريط - 8 جم</t>
+    <t>اد-مي صلصة 24 ظرف - 35 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>159</v>
+        <v>11960</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>3</v>
       </c>
       <c r="D2">
-        <v>1</v>
+        <v>54.5</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_696.xlsx
+++ b/Uploads/1_new_696.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>اد-مي صلصة 24 ظرف - 35 جم</t>
+    <t>كوفى ميكس بونجورنو ظرف - 12 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,18 +429,35 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11960</v>
+        <v>59</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2">
+        <v>1704</v>
+      </c>
+      <c r="E2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>59</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>54.5</v>
-      </c>
-      <c r="E2" t="s">
+      <c r="D3">
+        <v>71</v>
+      </c>
+      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Uploads/1_new_696.xlsx
+++ b/Uploads/1_new_696.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كوفى ميكس بونجورنو ظرف - 12 جم</t>
+    <t>فيورى جولد - 400 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,35 +429,18 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>59</v>
+        <v>7630</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>1704</v>
+        <v>217</v>
       </c>
       <c r="E2" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>59</v>
-      </c>
-      <c r="B3" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3">
-        <v>71</v>
-      </c>
-      <c r="E3" t="s">
         <v>8</v>
       </c>
     </row>

--- a/Uploads/1_new_696.xlsx
+++ b/Uploads/1_new_696.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,7 +37,13 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>فيورى جولد - 400 مل</t>
+    <t>بيبسى - 2.43 لتر</t>
+  </si>
+  <si>
+    <t>ميرندا برتقال - 2.43 لتر</t>
+  </si>
+  <si>
+    <t>سفن اب - 2.43 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -398,7 +404,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +435,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>7630</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +444,44 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>217</v>
+        <v>206</v>
       </c>
       <c r="E2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>1429</v>
+      </c>
+      <c r="B3" t="s">
         <v>8</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>206</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>1446</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>206</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_696.xlsx
+++ b/Uploads/1_new_696.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,13 +37,10 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>بيبسى - 2.43 لتر</t>
-  </si>
-  <si>
-    <t>ميرندا برتقال - 2.43 لتر</t>
-  </si>
-  <si>
-    <t>سفن اب - 2.43 لتر</t>
+    <t>لبن بخيره - 500 مل</t>
+  </si>
+  <si>
+    <t>لبن بخيره - 1 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -404,7 +401,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,53 +432,36 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>589</v>
+        <v>130</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>206</v>
+        <v>500</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>1429</v>
+        <v>151</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D3">
-        <v>206</v>
+        <v>444</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>1446</v>
-      </c>
-      <c r="B4" t="s">
         <v>9</v>
-      </c>
-      <c r="C4">
-        <v>2</v>
-      </c>
-      <c r="D4">
-        <v>206</v>
-      </c>
-      <c r="E4" t="s">
-        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_696.xlsx
+++ b/Uploads/1_new_696.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,37 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>لبن بخيره - 500 مل</t>
-  </si>
-  <si>
-    <t>لبن بخيره - 1 لتر</t>
+    <t>عصير سن توب توت مشكل - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب مانجو الفونسو - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب فواكه مشكلة - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب برتقال - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب اناناس - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب كشمش الاسود - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب تفاح - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب جوافة - 250 مل</t>
+  </si>
+  <si>
+    <t>عصير سن توب ليمون وردى - 250 مل</t>
+  </si>
+  <si>
+    <t>سن توب عصير دراجون فروت- 250 مل</t>
+  </si>
+  <si>
+    <t>سن توب عصير يوسفي مشطشط - 250 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -401,7 +428,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:G12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -432,7 +459,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>130</v>
+        <v>3889</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -441,15 +468,15 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>500</v>
+        <v>249</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:7">
       <c r="A3">
-        <v>151</v>
+        <v>3891</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -458,10 +485,163 @@
         <v>1</v>
       </c>
       <c r="D3">
-        <v>444</v>
+        <v>249</v>
       </c>
       <c r="E3" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>3892</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4">
+        <v>249</v>
+      </c>
+      <c r="E4" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>3893</v>
+      </c>
+      <c r="B5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>249</v>
+      </c>
+      <c r="E5" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>3894</v>
+      </c>
+      <c r="B6" t="s">
+        <v>11</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>249</v>
+      </c>
+      <c r="E6" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>5945</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>249</v>
+      </c>
+      <c r="E7" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>5946</v>
+      </c>
+      <c r="B8" t="s">
+        <v>13</v>
+      </c>
+      <c r="C8">
+        <v>1</v>
+      </c>
+      <c r="D8">
+        <v>249</v>
+      </c>
+      <c r="E8" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>7182</v>
+      </c>
+      <c r="B9" t="s">
+        <v>14</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>249</v>
+      </c>
+      <c r="E9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>12621</v>
+      </c>
+      <c r="B10" t="s">
+        <v>15</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>249</v>
+      </c>
+      <c r="E10" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>20649</v>
+      </c>
+      <c r="B11" t="s">
+        <v>16</v>
+      </c>
+      <c r="C11">
+        <v>1</v>
+      </c>
+      <c r="D11">
+        <v>249</v>
+      </c>
+      <c r="E11" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>20650</v>
+      </c>
+      <c r="B12" t="s">
+        <v>17</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>249</v>
+      </c>
+      <c r="E12" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_696.xlsx
+++ b/Uploads/1_new_696.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,37 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>عصير سن توب توت مشكل - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب مانجو الفونسو - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب فواكه مشكلة - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب برتقال - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب اناناس - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب كشمش الاسود - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب تفاح - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب جوافة - 250 مل</t>
-  </si>
-  <si>
-    <t>عصير سن توب ليمون وردى - 250 مل</t>
-  </si>
-  <si>
-    <t>سن توب عصير دراجون فروت- 250 مل</t>
-  </si>
-  <si>
-    <t>سن توب عصير يوسفي مشطشط - 250 مل</t>
+    <t>بيبسى - 2.43 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -428,7 +398,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G12"/>
+  <dimension ref="A1:G2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -459,189 +429,19 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>3889</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D2">
-        <v>249</v>
+        <v>203</v>
       </c>
       <c r="E2" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7">
-      <c r="A3">
-        <v>3891</v>
-      </c>
-      <c r="B3" t="s">
         <v>8</v>
-      </c>
-      <c r="C3">
-        <v>1</v>
-      </c>
-      <c r="D3">
-        <v>249</v>
-      </c>
-      <c r="E3" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7">
-      <c r="A4">
-        <v>3892</v>
-      </c>
-      <c r="B4" t="s">
-        <v>9</v>
-      </c>
-      <c r="C4">
-        <v>1</v>
-      </c>
-      <c r="D4">
-        <v>249</v>
-      </c>
-      <c r="E4" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7">
-      <c r="A5">
-        <v>3893</v>
-      </c>
-      <c r="B5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5">
-        <v>1</v>
-      </c>
-      <c r="D5">
-        <v>249</v>
-      </c>
-      <c r="E5" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7">
-      <c r="A6">
-        <v>3894</v>
-      </c>
-      <c r="B6" t="s">
-        <v>11</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>249</v>
-      </c>
-      <c r="E6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7">
-      <c r="A7">
-        <v>5945</v>
-      </c>
-      <c r="B7" t="s">
-        <v>12</v>
-      </c>
-      <c r="C7">
-        <v>1</v>
-      </c>
-      <c r="D7">
-        <v>249</v>
-      </c>
-      <c r="E7" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7">
-      <c r="A8">
-        <v>5946</v>
-      </c>
-      <c r="B8" t="s">
-        <v>13</v>
-      </c>
-      <c r="C8">
-        <v>1</v>
-      </c>
-      <c r="D8">
-        <v>249</v>
-      </c>
-      <c r="E8" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7">
-      <c r="A9">
-        <v>7182</v>
-      </c>
-      <c r="B9" t="s">
-        <v>14</v>
-      </c>
-      <c r="C9">
-        <v>1</v>
-      </c>
-      <c r="D9">
-        <v>249</v>
-      </c>
-      <c r="E9" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7">
-      <c r="A10">
-        <v>12621</v>
-      </c>
-      <c r="B10" t="s">
-        <v>15</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>249</v>
-      </c>
-      <c r="E10" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7">
-      <c r="A11">
-        <v>20649</v>
-      </c>
-      <c r="B11" t="s">
-        <v>16</v>
-      </c>
-      <c r="C11">
-        <v>1</v>
-      </c>
-      <c r="D11">
-        <v>249</v>
-      </c>
-      <c r="E11" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7">
-      <c r="A12">
-        <v>20650</v>
-      </c>
-      <c r="B12" t="s">
-        <v>17</v>
-      </c>
-      <c r="C12">
-        <v>1</v>
-      </c>
-      <c r="D12">
-        <v>249</v>
-      </c>
-      <c r="E12" t="s">
-        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_696.xlsx
+++ b/Uploads/1_new_696.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>بيبسى - 2.43 لتر</t>
+    <t>اوكسى يدوى نسيم الشرق - 250 جم</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,16 +429,16 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>589</v>
+        <v>11770</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
       </c>
       <c r="C2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2">
-        <v>203</v>
+        <v>138</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_696.xlsx
+++ b/Uploads/1_new_696.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="163" uniqueCount="52">
   <si>
     <t>Product ID</t>
   </si>
@@ -37,10 +37,139 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>اوكسى يدوى نسيم الشرق - 250 جم</t>
+    <t>رافلانت بونبون نعناع حار - 20 قطعه</t>
+  </si>
+  <si>
+    <t>تيكا شيكولاتة اسبريد ابيض - 330 جم</t>
+  </si>
+  <si>
+    <t>كوفى بريك 2*1 - 11 جم</t>
+  </si>
+  <si>
+    <t>فجيتار كنور عادى - 35 جم</t>
+  </si>
+  <si>
+    <t>بريكس كلور ابيض - 950 مل</t>
+  </si>
+  <si>
+    <t>شاى ناعم  الورده - 40 جم</t>
+  </si>
+  <si>
+    <t>شوتس شوكو - 12 قطعه</t>
+  </si>
+  <si>
+    <t>ماكينة حلاقة جيليت سيمبلى فينوس تو حريمى - عرض 8+4 مجانا 12 ماكينة</t>
+  </si>
+  <si>
+    <t>عصير جهينة بيور اناناس - 235 مل</t>
+  </si>
+  <si>
+    <t>عسل نحل التمساح بورشن الخلطة الملكية - 30 جم</t>
+  </si>
+  <si>
+    <t>الطاووس خل أبيض طبيعي - 900 مل</t>
+  </si>
+  <si>
+    <t>العبد معمول - 9 جنية</t>
+  </si>
+  <si>
+    <t>شاى ليبتون - 25 فتلة</t>
+  </si>
+  <si>
+    <t>التمساح عسل اسود - 680 جم</t>
+  </si>
+  <si>
+    <t>التمساح عسل اسود - 330 جم</t>
+  </si>
+  <si>
+    <t>مسحوق باهى يدوى لافندر - 215 جم</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى نسيم الشرق (8 كيس) - 500 جم</t>
+  </si>
+  <si>
+    <t>اوكسي يدوي نسيم الربيع ( 8 كيس ) - 500 جم</t>
+  </si>
+  <si>
+    <t>تويست مارشيلو بينك &amp; وايت - 10 جنية</t>
+  </si>
+  <si>
+    <t>كلوركس الوان باوش 5 جنيه - 100 جم</t>
+  </si>
+  <si>
+    <t>سباجيتوس اكسترا شعرية حلوة بطعم اناناس - 3 جنية</t>
+  </si>
+  <si>
+    <t>عسل البوادى اسود - 190 جم</t>
+  </si>
+  <si>
+    <t>التمساح عسل اسود - 2 كجم</t>
+  </si>
+  <si>
+    <t>ماجيك فنجر وفير مغطى بالشوكلاته محشو بكريمة البندق - 5 جنية</t>
+  </si>
+  <si>
+    <t>سباجيتوس اكسترا شعرية حلوة بطعم الكولا - 3 جنية</t>
+  </si>
+  <si>
+    <t>كنور فيجيتار حار - 35 جم</t>
+  </si>
+  <si>
+    <t>مرقة دجاج كنور فاين فودز شريط - 8 جم</t>
+  </si>
+  <si>
+    <t>كلوركس كلور - 1.2 لتر</t>
+  </si>
+  <si>
+    <t>عسل البوادى اسود - 355 جم</t>
+  </si>
+  <si>
+    <t>الطاووس خل أبيض طبيعي- 500 مل</t>
+  </si>
+  <si>
+    <t>التمساح عسل نحل - 225 جم</t>
+  </si>
+  <si>
+    <t>تويست ميني بلو مارشميلو  - 10 جنية</t>
+  </si>
+  <si>
+    <t>اوكسى يدوى لافندر - 500 جم</t>
+  </si>
+  <si>
+    <t>ماجيك فينجرز ويفر محشو بكريمة جوز الهند - 6 قطعه</t>
+  </si>
+  <si>
+    <t>ماجيك فنجرز - ويفر مغطى بالشوكولاتة محشو بكريمة الشوكولاتة - 6 قطعه</t>
+  </si>
+  <si>
+    <t>الطاووس خل أبيض طبيعي - delisted 900 مل</t>
+  </si>
+  <si>
+    <t>مولفيكس بانتس مقاس 3 - 56 حفاضة</t>
+  </si>
+  <si>
+    <t>بليزو- ويـفر رول محشو كريمة الفراوله مغطى  بالكراميل و الكريسب و مغطى بالشيكولاتة البيضاء - 10 جنية</t>
+  </si>
+  <si>
+    <t>تورتا رولز ديلايتس كيـك كاكاو محشو بكريمه الفانيليا ومغطي بالشكولاته - 10 جنية</t>
+  </si>
+  <si>
+    <t>تورتا ديلايتس كـيك كاكاو محشو بكريمه الشكولاته ومغطي بالشكولاته - 10 جنية</t>
+  </si>
+  <si>
+    <t>تورتا رولز كيك كـاكاو ملفوف محشو بكريمة الفانيايا و مغطي بالشوكولاتة - 5 جنية</t>
+  </si>
+  <si>
+    <t>تورتا كيك كاكاو ملفوف مـحشو بكريمة الشوكولاتة مغطى بالشوكولاتة - 5 جنية</t>
+  </si>
+  <si>
+    <t>تورتا لايرز كيك اسفـنجي محشو بكريمة الشوكولاته و مغطى بالشوكولاتة    - 5 جنية</t>
   </si>
   <si>
     <t>YES</t>
+  </si>
+  <si>
+    <t>NO</t>
   </si>
 </sst>
 </file>
@@ -398,7 +527,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G79"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -429,7 +558,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>11770</v>
+        <v>13396</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,10 +567,1319 @@
         <v>1</v>
       </c>
       <c r="D2">
-        <v>138</v>
+        <v>900</v>
       </c>
       <c r="E2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7">
+      <c r="A3">
+        <v>13396</v>
+      </c>
+      <c r="B3" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+      <c r="D3">
+        <v>112</v>
+      </c>
+      <c r="E3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7">
+      <c r="A4">
+        <v>13395</v>
+      </c>
+      <c r="B4" t="s">
         <v>8</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>712</v>
+      </c>
+      <c r="E4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7">
+      <c r="A5">
+        <v>2049</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5">
+        <v>1348</v>
+      </c>
+      <c r="E5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7">
+      <c r="A6">
+        <v>2049</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6">
+        <v>3</v>
+      </c>
+      <c r="D6">
+        <v>56</v>
+      </c>
+      <c r="E6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7">
+      <c r="A7">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>10</v>
+      </c>
+      <c r="C7">
+        <v>1</v>
+      </c>
+      <c r="D7">
+        <v>720</v>
+      </c>
+      <c r="E7" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7">
+      <c r="A8">
+        <v>105</v>
+      </c>
+      <c r="B8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+      <c r="D8">
+        <v>120</v>
+      </c>
+      <c r="E8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7">
+      <c r="A9">
+        <v>9182</v>
+      </c>
+      <c r="B9" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>184</v>
+      </c>
+      <c r="E9" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7">
+      <c r="A10">
+        <v>12294</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>2652</v>
+      </c>
+      <c r="E10" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7">
+      <c r="A11">
+        <v>12294</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>4</v>
+      </c>
+      <c r="D11">
+        <v>220</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7">
+      <c r="A12">
+        <v>21690</v>
+      </c>
+      <c r="B12" t="s">
+        <v>13</v>
+      </c>
+      <c r="C12">
+        <v>1</v>
+      </c>
+      <c r="D12">
+        <v>292</v>
+      </c>
+      <c r="E12" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7">
+      <c r="A13">
+        <v>21690</v>
+      </c>
+      <c r="B13" t="s">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>3</v>
+      </c>
+      <c r="D13">
+        <v>48</v>
+      </c>
+      <c r="E13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7">
+      <c r="A14">
+        <v>21088</v>
+      </c>
+      <c r="B14" t="s">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2108</v>
+      </c>
+      <c r="E14" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7">
+      <c r="A15">
+        <v>21088</v>
+      </c>
+      <c r="B15" t="s">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>7</v>
+      </c>
+      <c r="D15">
+        <v>140</v>
+      </c>
+      <c r="E15" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7">
+      <c r="A16">
+        <v>9783</v>
+      </c>
+      <c r="B16" t="s">
+        <v>15</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>444</v>
+      </c>
+      <c r="E16" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
+      <c r="A17">
+        <v>8065</v>
+      </c>
+      <c r="B17" t="s">
+        <v>16</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
+        <v>2704</v>
+      </c>
+      <c r="E17" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
+      <c r="A18">
+        <v>8065</v>
+      </c>
+      <c r="B18" t="s">
+        <v>16</v>
+      </c>
+      <c r="C18">
+        <v>2</v>
+      </c>
+      <c r="D18">
+        <v>272</v>
+      </c>
+      <c r="E18" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5">
+      <c r="A19">
+        <v>5660</v>
+      </c>
+      <c r="B19" t="s">
+        <v>17</v>
+      </c>
+      <c r="C19">
+        <v>2</v>
+      </c>
+      <c r="D19">
+        <v>168</v>
+      </c>
+      <c r="E19" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5">
+      <c r="A20">
+        <v>8638</v>
+      </c>
+      <c r="B20" t="s">
+        <v>18</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+      <c r="D20">
+        <v>912</v>
+      </c>
+      <c r="E20" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5">
+      <c r="A21">
+        <v>95</v>
+      </c>
+      <c r="B21" t="s">
+        <v>19</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+      <c r="D21">
+        <v>4160</v>
+      </c>
+      <c r="E21" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5">
+      <c r="A22">
+        <v>4674</v>
+      </c>
+      <c r="B22" t="s">
+        <v>20</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22">
+        <v>548</v>
+      </c>
+      <c r="E22" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5">
+      <c r="A23">
+        <v>4674</v>
+      </c>
+      <c r="B23" t="s">
+        <v>20</v>
+      </c>
+      <c r="C23">
+        <v>14</v>
+      </c>
+      <c r="D23">
+        <v>44</v>
+      </c>
+      <c r="E23" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5">
+      <c r="A24">
+        <v>4674</v>
+      </c>
+      <c r="B24" t="s">
+        <v>20</v>
+      </c>
+      <c r="C24">
+        <v>15</v>
+      </c>
+      <c r="D24">
+        <v>136</v>
+      </c>
+      <c r="E24" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5">
+      <c r="A25">
+        <v>4674</v>
+      </c>
+      <c r="B25" t="s">
+        <v>20</v>
+      </c>
+      <c r="C25">
+        <v>16</v>
+      </c>
+      <c r="D25">
+        <v>276</v>
+      </c>
+      <c r="E25" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5">
+      <c r="A26">
+        <v>4673</v>
+      </c>
+      <c r="B26" t="s">
+        <v>21</v>
+      </c>
+      <c r="C26">
+        <v>1</v>
+      </c>
+      <c r="D26">
+        <v>588</v>
+      </c>
+      <c r="E26" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5">
+      <c r="A27">
+        <v>4673</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>14</v>
+      </c>
+      <c r="D27">
+        <v>24</v>
+      </c>
+      <c r="E27" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5">
+      <c r="A28">
+        <v>4673</v>
+      </c>
+      <c r="B28" t="s">
+        <v>21</v>
+      </c>
+      <c r="C28">
+        <v>15</v>
+      </c>
+      <c r="D28">
+        <v>148</v>
+      </c>
+      <c r="E28" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5">
+      <c r="A29">
+        <v>4673</v>
+      </c>
+      <c r="B29" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29">
+        <v>16</v>
+      </c>
+      <c r="D29">
+        <v>292</v>
+      </c>
+      <c r="E29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5">
+      <c r="A30">
+        <v>11813</v>
+      </c>
+      <c r="B30" t="s">
+        <v>22</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+      <c r="D30">
+        <v>100</v>
+      </c>
+      <c r="E30" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5">
+      <c r="A31">
+        <v>11773</v>
+      </c>
+      <c r="B31" t="s">
+        <v>23</v>
+      </c>
+      <c r="C31">
+        <v>1</v>
+      </c>
+      <c r="D31">
+        <v>244</v>
+      </c>
+      <c r="E31" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5">
+      <c r="A32">
+        <v>11774</v>
+      </c>
+      <c r="B32" t="s">
+        <v>24</v>
+      </c>
+      <c r="C32">
+        <v>1</v>
+      </c>
+      <c r="D32">
+        <v>244</v>
+      </c>
+      <c r="E32" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5">
+      <c r="A33">
+        <v>11717</v>
+      </c>
+      <c r="B33" t="s">
+        <v>25</v>
+      </c>
+      <c r="C33">
+        <v>1</v>
+      </c>
+      <c r="D33">
+        <v>616</v>
+      </c>
+      <c r="E33" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5">
+      <c r="A34">
+        <v>11717</v>
+      </c>
+      <c r="B34" t="s">
+        <v>25</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+      <c r="D34">
+        <v>104</v>
+      </c>
+      <c r="E34" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5">
+      <c r="A35">
+        <v>9372</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35">
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <v>120</v>
+      </c>
+      <c r="E35" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5">
+      <c r="A36">
+        <v>11057</v>
+      </c>
+      <c r="B36" t="s">
+        <v>27</v>
+      </c>
+      <c r="C36">
+        <v>1</v>
+      </c>
+      <c r="D36">
+        <v>344</v>
+      </c>
+      <c r="E36" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5">
+      <c r="A37">
+        <v>11057</v>
+      </c>
+      <c r="B37" t="s">
+        <v>27</v>
+      </c>
+      <c r="C37">
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <v>56</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5">
+      <c r="A38">
+        <v>2103</v>
+      </c>
+      <c r="B38" t="s">
+        <v>28</v>
+      </c>
+      <c r="C38">
+        <v>1</v>
+      </c>
+      <c r="D38">
+        <v>348</v>
+      </c>
+      <c r="E38" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5">
+      <c r="A39">
+        <v>2103</v>
+      </c>
+      <c r="B39" t="s">
+        <v>28</v>
+      </c>
+      <c r="C39">
+        <v>10</v>
+      </c>
+      <c r="D39">
+        <v>16</v>
+      </c>
+      <c r="E39" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5">
+      <c r="A40">
+        <v>2103</v>
+      </c>
+      <c r="B40" t="s">
+        <v>28</v>
+      </c>
+      <c r="C40">
+        <v>15</v>
+      </c>
+      <c r="D40">
+        <v>88</v>
+      </c>
+      <c r="E40" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5">
+      <c r="A41">
+        <v>2103</v>
+      </c>
+      <c r="B41" t="s">
+        <v>28</v>
+      </c>
+      <c r="C41">
+        <v>16</v>
+      </c>
+      <c r="D41">
+        <v>172</v>
+      </c>
+      <c r="E41" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5">
+      <c r="A42">
+        <v>4675</v>
+      </c>
+      <c r="B42" t="s">
+        <v>29</v>
+      </c>
+      <c r="C42">
+        <v>1</v>
+      </c>
+      <c r="D42">
+        <v>764</v>
+      </c>
+      <c r="E42" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5">
+      <c r="A43">
+        <v>4675</v>
+      </c>
+      <c r="B43" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43">
+        <v>14</v>
+      </c>
+      <c r="D43">
+        <v>128</v>
+      </c>
+      <c r="E43" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5">
+      <c r="A44">
+        <v>10815</v>
+      </c>
+      <c r="B44" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44">
+        <v>3</v>
+      </c>
+      <c r="D44">
+        <v>24</v>
+      </c>
+      <c r="E44" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5">
+      <c r="A45">
+        <v>11055</v>
+      </c>
+      <c r="B45" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45">
+        <v>1</v>
+      </c>
+      <c r="D45">
+        <v>344</v>
+      </c>
+      <c r="E45" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5">
+      <c r="A46">
+        <v>11055</v>
+      </c>
+      <c r="B46" t="s">
+        <v>31</v>
+      </c>
+      <c r="C46">
+        <v>3</v>
+      </c>
+      <c r="D46">
+        <v>56</v>
+      </c>
+      <c r="E46" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5">
+      <c r="A47">
+        <v>114</v>
+      </c>
+      <c r="B47" t="s">
+        <v>32</v>
+      </c>
+      <c r="C47">
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <v>720</v>
+      </c>
+      <c r="E47" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5">
+      <c r="A48">
+        <v>114</v>
+      </c>
+      <c r="B48" t="s">
+        <v>32</v>
+      </c>
+      <c r="C48">
+        <v>3</v>
+      </c>
+      <c r="D48">
+        <v>120</v>
+      </c>
+      <c r="E48" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5">
+      <c r="A49">
+        <v>159</v>
+      </c>
+      <c r="B49" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49">
+        <v>1</v>
+      </c>
+      <c r="D49">
+        <v>744</v>
+      </c>
+      <c r="E49" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5">
+      <c r="A50">
+        <v>159</v>
+      </c>
+      <c r="B50" t="s">
+        <v>33</v>
+      </c>
+      <c r="C50">
+        <v>16</v>
+      </c>
+      <c r="D50">
+        <v>372</v>
+      </c>
+      <c r="E50" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5">
+      <c r="A51">
+        <v>385</v>
+      </c>
+      <c r="B51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C51">
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <v>388</v>
+      </c>
+      <c r="E51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5">
+      <c r="A52">
+        <v>71</v>
+      </c>
+      <c r="B52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52">
+        <v>548</v>
+      </c>
+      <c r="E52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5">
+      <c r="A53">
+        <v>71</v>
+      </c>
+      <c r="B53" t="s">
+        <v>35</v>
+      </c>
+      <c r="C53">
+        <v>10</v>
+      </c>
+      <c r="D53">
+        <v>24</v>
+      </c>
+      <c r="E53" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5">
+      <c r="A54">
+        <v>71</v>
+      </c>
+      <c r="B54" t="s">
+        <v>35</v>
+      </c>
+      <c r="C54">
+        <v>15</v>
+      </c>
+      <c r="D54">
+        <v>136</v>
+      </c>
+      <c r="E54" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5">
+      <c r="A55">
+        <v>71</v>
+      </c>
+      <c r="B55" t="s">
+        <v>35</v>
+      </c>
+      <c r="C55">
+        <v>16</v>
+      </c>
+      <c r="D55">
+        <v>272</v>
+      </c>
+      <c r="E55" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5">
+      <c r="A56">
+        <v>880</v>
+      </c>
+      <c r="B56" t="s">
+        <v>36</v>
+      </c>
+      <c r="C56">
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <v>192</v>
+      </c>
+      <c r="E56" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5">
+      <c r="A57">
+        <v>4672</v>
+      </c>
+      <c r="B57" t="s">
+        <v>37</v>
+      </c>
+      <c r="C57">
+        <v>1</v>
+      </c>
+      <c r="D57">
+        <v>556</v>
+      </c>
+      <c r="E57" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5">
+      <c r="A58">
+        <v>11718</v>
+      </c>
+      <c r="B58" t="s">
+        <v>38</v>
+      </c>
+      <c r="C58">
+        <v>1</v>
+      </c>
+      <c r="D58">
+        <v>616</v>
+      </c>
+      <c r="E58" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5">
+      <c r="A59">
+        <v>11718</v>
+      </c>
+      <c r="B59" t="s">
+        <v>38</v>
+      </c>
+      <c r="C59">
+        <v>3</v>
+      </c>
+      <c r="D59">
+        <v>104</v>
+      </c>
+      <c r="E59" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5">
+      <c r="A60">
+        <v>11775</v>
+      </c>
+      <c r="B60" t="s">
+        <v>39</v>
+      </c>
+      <c r="C60">
+        <v>1</v>
+      </c>
+      <c r="D60">
+        <v>244</v>
+      </c>
+      <c r="E60" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5">
+      <c r="A61">
+        <v>21689</v>
+      </c>
+      <c r="B61" t="s">
+        <v>40</v>
+      </c>
+      <c r="C61">
+        <v>1</v>
+      </c>
+      <c r="D61">
+        <v>304</v>
+      </c>
+      <c r="E61" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5">
+      <c r="A62">
+        <v>21689</v>
+      </c>
+      <c r="B62" t="s">
+        <v>40</v>
+      </c>
+      <c r="C62">
+        <v>3</v>
+      </c>
+      <c r="D62">
+        <v>24</v>
+      </c>
+      <c r="E62" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5">
+      <c r="A63">
+        <v>21694</v>
+      </c>
+      <c r="B63" t="s">
+        <v>41</v>
+      </c>
+      <c r="C63">
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <v>308</v>
+      </c>
+      <c r="E63" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5">
+      <c r="A64">
+        <v>21694</v>
+      </c>
+      <c r="B64" t="s">
+        <v>41</v>
+      </c>
+      <c r="C64">
+        <v>3</v>
+      </c>
+      <c r="D64">
+        <v>24</v>
+      </c>
+      <c r="E64" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5">
+      <c r="A65">
+        <v>879</v>
+      </c>
+      <c r="B65" t="s">
+        <v>42</v>
+      </c>
+      <c r="C65">
+        <v>1</v>
+      </c>
+      <c r="D65">
+        <v>168</v>
+      </c>
+      <c r="E65" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5">
+      <c r="A66">
+        <v>23233</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66">
+        <v>25</v>
+      </c>
+      <c r="D66">
+        <v>328</v>
+      </c>
+      <c r="E66" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5">
+      <c r="A67">
+        <v>23233</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67">
+        <v>29</v>
+      </c>
+      <c r="D67">
+        <v>988</v>
+      </c>
+      <c r="E67" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5">
+      <c r="A68">
+        <v>24718</v>
+      </c>
+      <c r="B68" t="s">
+        <v>44</v>
+      </c>
+      <c r="C68">
+        <v>1</v>
+      </c>
+      <c r="D68">
+        <v>924</v>
+      </c>
+      <c r="E68" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5">
+      <c r="A69">
+        <v>24718</v>
+      </c>
+      <c r="B69" t="s">
+        <v>44</v>
+      </c>
+      <c r="C69">
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <v>52</v>
+      </c>
+      <c r="E69" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5">
+      <c r="A70">
+        <v>24708</v>
+      </c>
+      <c r="B70" t="s">
+        <v>45</v>
+      </c>
+      <c r="C70">
+        <v>1</v>
+      </c>
+      <c r="D70">
+        <v>852</v>
+      </c>
+      <c r="E70" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5">
+      <c r="A71">
+        <v>24708</v>
+      </c>
+      <c r="B71" t="s">
+        <v>45</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71">
+        <v>48</v>
+      </c>
+      <c r="E71" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5">
+      <c r="A72">
+        <v>24707</v>
+      </c>
+      <c r="B72" t="s">
+        <v>46</v>
+      </c>
+      <c r="C72">
+        <v>1</v>
+      </c>
+      <c r="D72">
+        <v>852</v>
+      </c>
+      <c r="E72" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5">
+      <c r="A73">
+        <v>24707</v>
+      </c>
+      <c r="B73" t="s">
+        <v>46</v>
+      </c>
+      <c r="C73">
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <v>48</v>
+      </c>
+      <c r="E73" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5">
+      <c r="A74">
+        <v>24712</v>
+      </c>
+      <c r="B74" t="s">
+        <v>47</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74">
+        <v>852</v>
+      </c>
+      <c r="E74" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5">
+      <c r="A75">
+        <v>24712</v>
+      </c>
+      <c r="B75" t="s">
+        <v>47</v>
+      </c>
+      <c r="C75">
+        <v>3</v>
+      </c>
+      <c r="D75">
+        <v>48</v>
+      </c>
+      <c r="E75" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5">
+      <c r="A76">
+        <v>24715</v>
+      </c>
+      <c r="B76" t="s">
+        <v>48</v>
+      </c>
+      <c r="C76">
+        <v>1</v>
+      </c>
+      <c r="D76">
+        <v>852</v>
+      </c>
+      <c r="E76" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5">
+      <c r="A77">
+        <v>24715</v>
+      </c>
+      <c r="B77" t="s">
+        <v>48</v>
+      </c>
+      <c r="C77">
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <v>48</v>
+      </c>
+      <c r="E77" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5">
+      <c r="A78">
+        <v>24710</v>
+      </c>
+      <c r="B78" t="s">
+        <v>49</v>
+      </c>
+      <c r="C78">
+        <v>1</v>
+      </c>
+      <c r="D78">
+        <v>852</v>
+      </c>
+      <c r="E78" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5">
+      <c r="A79">
+        <v>24710</v>
+      </c>
+      <c r="B79" t="s">
+        <v>49</v>
+      </c>
+      <c r="C79">
+        <v>3</v>
+      </c>
+      <c r="D79">
+        <v>48</v>
+      </c>
+      <c r="E79" t="s">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/Uploads/1_new_696.xlsx
+++ b/Uploads/1_new_696.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>كوكاكولا اكشن - 300 مل</t>
+    <t>بيبسى - 2.43 لتر</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>6935</v>
+        <v>589</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>110</v>
+        <v>225</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>

--- a/Uploads/1_new_696.xlsx
+++ b/Uploads/1_new_696.xlsx
@@ -37,7 +37,7 @@
     <t>Tags</t>
   </si>
   <si>
-    <t>بيبسى - 2.43 لتر</t>
+    <t>بيبسى كانز ستار زيادة %10- 355 مل</t>
   </si>
   <si>
     <t>YES</t>
@@ -429,7 +429,7 @@
     </row>
     <row r="2" spans="1:7">
       <c r="A2">
-        <v>589</v>
+        <v>25899</v>
       </c>
       <c r="B2" t="s">
         <v>7</v>
@@ -438,7 +438,7 @@
         <v>2</v>
       </c>
       <c r="D2">
-        <v>225</v>
+        <v>335</v>
       </c>
       <c r="E2" t="s">
         <v>8</v>
